--- a/Graphs/Graphs.xlsx
+++ b/Graphs/Graphs.xlsx
@@ -5,14 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannviktor/Python/PycharmProjects/15.451-Proseminar-IM/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hermannviktor/Python/PycharmProjects/15.451-Proseminar-IM/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="27240" windowHeight="14900" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Kinked utility function" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Kinked utility function" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>gamma</t>
   </si>
@@ -40,12 +41,35 @@
   <si>
     <t>Utility</t>
   </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Return</t>
+  </si>
+  <si>
+    <t>Wealth</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0;\(&quot;$&quot;#,##0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0%;\(0%\);\-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -58,16 +82,38 @@
       <color theme="1"/>
       <name val="Cambria"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA31F34"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -75,16 +121,48 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="1" tint="0.24994659260841701"/>
+      </top>
+      <bottom style="hair">
+        <color theme="1" tint="0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -482,11 +560,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="-753515664"/>
-        <c:axId val="-752767712"/>
+        <c:axId val="1120504720"/>
+        <c:axId val="1117439008"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-753515664"/>
+        <c:axId val="1120504720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +607,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-752767712"/>
+        <c:crossAx val="1117439008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblAlgn val="ctr"/>
@@ -538,7 +616,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-752767712"/>
+        <c:axId val="1117439008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-10.0"/>
@@ -578,7 +656,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-753515664"/>
+        <c:crossAx val="1120504720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1760,10 +1838,412 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="5.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="4" max="4" width="6.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B4" s="3">
+        <v>65</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B5" s="5">
+        <f>+B4+1</f>
+        <v>66</v>
+      </c>
+      <c r="C5" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="E5" s="6">
+        <f>+E4*(1+D5)-C5</f>
+        <v>1000000</v>
+      </c>
+      <c r="F5" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="G5" s="6">
+        <f>+MAX(G4*(1+F5)-C5,0)</f>
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B6" s="5">
+        <f t="shared" ref="B6:B29" si="0">+B5+1</f>
+        <v>67</v>
+      </c>
+      <c r="C6" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D6" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E6" s="6">
+        <f>+E5*(1+D6)-C6</f>
+        <v>1230000</v>
+      </c>
+      <c r="F6" s="9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" ref="G6:G29" si="1">+MAX(G5*(1+F6)-C6,0)</f>
+        <v>509000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B7" s="5">
+        <f t="shared" si="0"/>
+        <v>68</v>
+      </c>
+      <c r="C7" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D7" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E7" s="6">
+        <f t="shared" ref="E7:E29" si="2">+E6*(1+D7)-C7</f>
+        <v>1450600</v>
+      </c>
+      <c r="F7" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="1"/>
+        <v>408100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B8" s="5">
+        <f t="shared" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C8" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D8" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="E8" s="6">
+        <f t="shared" si="2"/>
+        <v>1328070</v>
+      </c>
+      <c r="F8" s="9">
+        <v>-0.26</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="1"/>
+        <v>251994</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B9" s="5">
+        <f t="shared" si="0"/>
+        <v>70</v>
+      </c>
+      <c r="C9" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="2"/>
+        <v>1543684</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>257432.68</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B10" s="5">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+      <c r="C10" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="E10" s="6">
+        <f t="shared" si="2"/>
+        <v>1725236.5999999999</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="1"/>
+        <v>240898.92839999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B11" s="5">
+        <f t="shared" si="0"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="E11" s="6">
+        <f t="shared" si="2"/>
+        <v>2072041.0179999997</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="1"/>
+        <v>229442.75694399996</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>73</v>
+      </c>
+      <c r="C12" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="E12" s="6">
+        <f t="shared" si="2"/>
+        <v>2208524.7096199999</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0.09</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="1"/>
+        <v>200092.60506895997</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>74</v>
+      </c>
+      <c r="C13" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0.16</v>
+      </c>
+      <c r="E13" s="6">
+        <f t="shared" si="2"/>
+        <v>2511888.6631591995</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0.23</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="1"/>
+        <v>196113.90423482074</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B14" s="5">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="C14" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="E14" s="6">
+        <f t="shared" si="2"/>
+        <v>2788434.189369895</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0.15</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="1"/>
+        <v>175530.98987004385</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B15" s="5">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C15" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" si="2"/>
+        <v>3351889.7110312721</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="1"/>
+        <v>160637.18784405262</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B16" s="5">
+        <f t="shared" si="0"/>
+        <v>77</v>
+      </c>
+      <c r="C16" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D16" s="9">
+        <v>-0.26</v>
+      </c>
+      <c r="E16" s="6">
+        <f t="shared" si="2"/>
+        <v>2430398.3861631411</v>
+      </c>
+      <c r="F16" s="9">
+        <v>-0.05</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="1"/>
+        <v>102605.32845184999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B17" s="5">
+        <f t="shared" si="0"/>
+        <v>78</v>
+      </c>
+      <c r="C17" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D17" s="9">
+        <v>-0.1</v>
+      </c>
+      <c r="E17" s="6">
+        <f t="shared" si="2"/>
+        <v>2137358.5475468272</v>
+      </c>
+      <c r="F17" s="9">
+        <v>0.22</v>
+      </c>
+      <c r="G17" s="6">
+        <f t="shared" si="1"/>
+        <v>75178.500711256973</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="5">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C18" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D18" s="9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="E18" s="6">
+        <f t="shared" si="2"/>
+        <v>1788128.3508902714</v>
+      </c>
+      <c r="F18" s="9">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G18" s="6">
+        <f t="shared" si="1"/>
+        <v>46228.480910408922</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B19" s="5">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="C19" s="6">
+        <v>50000</v>
+      </c>
+      <c r="D19" s="9">
+        <v>-0.3</v>
+      </c>
+      <c r="E19" s="7">
+        <f t="shared" si="2"/>
+        <v>1201689.8456231898</v>
+      </c>
+      <c r="F19" s="9">
+        <v>0.05</v>
+      </c>
+      <c r="G19" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D105"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1807,7 +2287,7 @@
         <v>0.1</v>
       </c>
       <c r="D6">
-        <f t="shared" ref="D6:D31" si="0">+((1^(1-$C$2)-1)/(1-$C$2))-$C$3*(1-C6)</f>
+        <f t="shared" ref="D6:D14" si="0">+((1^(1-$C$2)-1)/(1-$C$2))-$C$3*(1-C6)</f>
         <v>-9</v>
       </c>
     </row>
@@ -2556,7 +3036,7 @@
         <v>7.599999999999989</v>
       </c>
       <c r="D81">
-        <f t="shared" ref="D81:D106" si="5">+(C81^(1-$C$2)-1)/(1-$C$2)</f>
+        <f t="shared" ref="D81:D105" si="5">+(C81^(1-$C$2)-1)/(1-$C$2)</f>
         <v>2.0283539304635236</v>
       </c>
     </row>
@@ -2702,7 +3182,7 @@
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C96">
-        <f t="shared" ref="C96:C106" si="6">+C95+0.1</f>
+        <f t="shared" ref="C96:C105" si="6">+C95+0.1</f>
         <v>9.0999999999999837</v>
       </c>
       <c r="D96">
